--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_16ha_100ha_2%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_16ha_100ha_2%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2552,28 +2552,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>86.74379813164241</v>
+        <v>121.2772693135759</v>
       </c>
       <c r="AB2" t="n">
-        <v>118.6866914699517</v>
+        <v>165.9369102502741</v>
       </c>
       <c r="AC2" t="n">
-        <v>107.3594002139081</v>
+        <v>150.1001244299501</v>
       </c>
       <c r="AD2" t="n">
-        <v>86743.79813164241</v>
+        <v>121277.2693135759</v>
       </c>
       <c r="AE2" t="n">
-        <v>118686.6914699517</v>
+        <v>165936.9102502741</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.894390627633586e-06</v>
+        <v>5.61440438292621e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.799479166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>107359.4002139081</v>
+        <v>150100.1244299501</v>
       </c>
     </row>
     <row r="3">
@@ -2658,28 +2658,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>74.00543256297878</v>
+        <v>108.4535628903407</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.2574977218883</v>
+        <v>148.3909493800131</v>
       </c>
       <c r="AC3" t="n">
-        <v>91.59362425512727</v>
+        <v>134.2287254392305</v>
       </c>
       <c r="AD3" t="n">
-        <v>74005.43256297878</v>
+        <v>108453.5628903407</v>
       </c>
       <c r="AE3" t="n">
-        <v>101257.4977218883</v>
+        <v>148390.9493800131</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.526221918536547e-06</v>
+        <v>6.525293070810879e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.71875</v>
       </c>
       <c r="AH3" t="n">
-        <v>91593.62425512727</v>
+        <v>134228.7254392305</v>
       </c>
     </row>
     <row r="4">
@@ -2764,28 +2764,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>72.74456656183266</v>
+        <v>98.55941860226221</v>
       </c>
       <c r="AB4" t="n">
-        <v>99.53232523363899</v>
+        <v>134.8533446662315</v>
       </c>
       <c r="AC4" t="n">
-        <v>90.03309980786109</v>
+        <v>121.9831307191804</v>
       </c>
       <c r="AD4" t="n">
-        <v>72744.56656183266</v>
+        <v>98559.41860226222</v>
       </c>
       <c r="AE4" t="n">
-        <v>99532.32523363899</v>
+        <v>134853.3446662315</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.750907278403254e-06</v>
+        <v>6.849213958526635e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.393229166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>90033.09980786109</v>
+        <v>121983.1307191804</v>
       </c>
     </row>
     <row r="5">
@@ -2870,28 +2870,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>72.08034039518654</v>
+        <v>97.8951924356161</v>
       </c>
       <c r="AB5" t="n">
-        <v>98.62350168884387</v>
+        <v>133.9445211214364</v>
       </c>
       <c r="AC5" t="n">
-        <v>89.21101310663909</v>
+        <v>121.1610440179584</v>
       </c>
       <c r="AD5" t="n">
-        <v>72080.34039518653</v>
+        <v>97895.19243561609</v>
       </c>
       <c r="AE5" t="n">
-        <v>98623.50168884387</v>
+        <v>133944.5211214364</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.862806469676992e-06</v>
+        <v>7.010535040565836e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.25</v>
       </c>
       <c r="AH5" t="n">
-        <v>89211.01310663909</v>
+        <v>121161.0440179584</v>
       </c>
     </row>
     <row r="6">
@@ -2976,28 +2976,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>71.58543182590556</v>
+        <v>97.40028386633512</v>
       </c>
       <c r="AB6" t="n">
-        <v>97.94634595052887</v>
+        <v>133.2673653831214</v>
       </c>
       <c r="AC6" t="n">
-        <v>88.5984841615946</v>
+        <v>120.5485150729139</v>
       </c>
       <c r="AD6" t="n">
-        <v>71585.43182590556</v>
+        <v>97400.28386633511</v>
       </c>
       <c r="AE6" t="n">
-        <v>97946.34595052886</v>
+        <v>133267.3653831214</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.924941565040088e-06</v>
+        <v>7.100112996424898e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.171875</v>
       </c>
       <c r="AH6" t="n">
-        <v>88598.48416159459</v>
+        <v>120548.5150729139</v>
       </c>
     </row>
     <row r="7">
@@ -3082,28 +3082,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>71.08379322948123</v>
+        <v>96.8986452699108</v>
       </c>
       <c r="AB7" t="n">
-        <v>97.2599818921685</v>
+        <v>132.581001324761</v>
       </c>
       <c r="AC7" t="n">
-        <v>87.97762572564591</v>
+        <v>119.9276566369652</v>
       </c>
       <c r="AD7" t="n">
-        <v>71083.79322948123</v>
+        <v>96898.6452699108</v>
       </c>
       <c r="AE7" t="n">
-        <v>97259.98189216849</v>
+        <v>132581.001324761</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.989270762192867e-06</v>
+        <v>7.192854110755319e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.09375</v>
       </c>
       <c r="AH7" t="n">
-        <v>87977.62572564591</v>
+        <v>119927.6566369652</v>
       </c>
     </row>
     <row r="8">
@@ -3188,28 +3188,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>71.01144079727773</v>
+        <v>96.8262928377073</v>
       </c>
       <c r="AB8" t="n">
-        <v>97.16098610246367</v>
+        <v>132.4820055350562</v>
       </c>
       <c r="AC8" t="n">
-        <v>87.88807795516902</v>
+        <v>119.8381088664883</v>
       </c>
       <c r="AD8" t="n">
-        <v>71011.44079727773</v>
+        <v>96826.2928377073</v>
       </c>
       <c r="AE8" t="n">
-        <v>97160.98610246366</v>
+        <v>132482.0055350562</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.986913269844379e-06</v>
+        <v>7.189455397929711e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.09375</v>
       </c>
       <c r="AH8" t="n">
-        <v>87888.07795516902</v>
+        <v>119838.1088664883</v>
       </c>
     </row>
   </sheetData>
@@ -3485,28 +3485,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>81.44899653683126</v>
+        <v>106.701356710391</v>
       </c>
       <c r="AB2" t="n">
-        <v>111.4421103377743</v>
+        <v>145.9935035827262</v>
       </c>
       <c r="AC2" t="n">
-        <v>100.8062317371499</v>
+        <v>132.0600885039996</v>
       </c>
       <c r="AD2" t="n">
-        <v>81448.99653683126</v>
+        <v>106701.356710391</v>
       </c>
       <c r="AE2" t="n">
-        <v>111442.1103377743</v>
+        <v>145993.5035827263</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.457799428047912e-06</v>
+        <v>6.526050664915582e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.057291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>100806.2317371499</v>
+        <v>132060.0885039996</v>
       </c>
     </row>
     <row r="3">
@@ -3591,28 +3591,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>70.0149277460672</v>
+        <v>95.18194706505537</v>
       </c>
       <c r="AB3" t="n">
-        <v>95.79751298274505</v>
+        <v>130.2321391054994</v>
       </c>
       <c r="AC3" t="n">
-        <v>86.65473279634936</v>
+        <v>117.8029665312603</v>
       </c>
       <c r="AD3" t="n">
-        <v>70014.9277460672</v>
+        <v>95181.94706505537</v>
       </c>
       <c r="AE3" t="n">
-        <v>95797.51298274504</v>
+        <v>130232.1391054993</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.070129605421727e-06</v>
+        <v>7.422479009370768e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.197916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>86654.73279634936</v>
+        <v>117802.9665312603</v>
       </c>
     </row>
     <row r="4">
@@ -3697,28 +3697,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>69.26210540576078</v>
+        <v>94.42912472474895</v>
       </c>
       <c r="AB4" t="n">
-        <v>94.76746824456067</v>
+        <v>129.202094367315</v>
       </c>
       <c r="AC4" t="n">
-        <v>85.72299408230009</v>
+        <v>116.871227817211</v>
       </c>
       <c r="AD4" t="n">
-        <v>69262.10540576078</v>
+        <v>94429.12472474895</v>
       </c>
       <c r="AE4" t="n">
-        <v>94767.46824456067</v>
+        <v>129202.094367315</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.223049161134034e-06</v>
+        <v>7.646347486260028e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.015625</v>
       </c>
       <c r="AH4" t="n">
-        <v>85722.99408230009</v>
+        <v>116871.227817211</v>
       </c>
     </row>
     <row r="5">
@@ -3803,28 +3803,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>60.08627092588861</v>
+        <v>85.33854159089735</v>
       </c>
       <c r="AB5" t="n">
-        <v>82.21268669995858</v>
+        <v>116.7639574753621</v>
       </c>
       <c r="AC5" t="n">
-        <v>74.3664232675643</v>
+        <v>105.6201692531874</v>
       </c>
       <c r="AD5" t="n">
-        <v>60086.2709258886</v>
+        <v>85338.54159089735</v>
       </c>
       <c r="AE5" t="n">
-        <v>82212.68669995858</v>
+        <v>116763.9574753621</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.343129525978073e-06</v>
+        <v>7.822140623094114e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.885416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>74366.4232675643</v>
+        <v>105620.1692531874</v>
       </c>
     </row>
     <row r="6">
@@ -3909,28 +3909,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>59.58435703912426</v>
+        <v>84.83662770413299</v>
       </c>
       <c r="AB6" t="n">
-        <v>81.52594597721003</v>
+        <v>116.0772167526136</v>
       </c>
       <c r="AC6" t="n">
-        <v>73.74522411554798</v>
+        <v>104.9989701011711</v>
       </c>
       <c r="AD6" t="n">
-        <v>59584.35703912425</v>
+        <v>84836.62770413299</v>
       </c>
       <c r="AE6" t="n">
-        <v>81525.94597721002</v>
+        <v>116077.2167526136</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.407938635015153e-06</v>
+        <v>7.917018720673582e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.807291666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>73745.22411554799</v>
+        <v>104998.9701011711</v>
       </c>
     </row>
   </sheetData>
@@ -4206,28 +4206,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>53.91884280871633</v>
+        <v>77.22070901143556</v>
       </c>
       <c r="AB2" t="n">
-        <v>73.77413946232215</v>
+        <v>105.6567808066505</v>
       </c>
       <c r="AC2" t="n">
-        <v>66.73323913470979</v>
+        <v>95.57304593671373</v>
       </c>
       <c r="AD2" t="n">
-        <v>53918.84280871633</v>
+        <v>77220.70901143555</v>
       </c>
       <c r="AE2" t="n">
-        <v>73774.13946232216</v>
+        <v>105656.7808066505</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.305554641792664e-06</v>
+        <v>9.755471343843857e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.559895833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>66733.23913470979</v>
+        <v>95573.04593671372</v>
       </c>
     </row>
     <row r="3">
@@ -4312,28 +4312,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>53.29270149326089</v>
+        <v>76.42397549538794</v>
       </c>
       <c r="AB3" t="n">
-        <v>72.9174252911112</v>
+        <v>104.5666548605926</v>
       </c>
       <c r="AC3" t="n">
-        <v>65.95828856159302</v>
+        <v>94.58696008094594</v>
       </c>
       <c r="AD3" t="n">
-        <v>53292.70149326089</v>
+        <v>76423.97549538793</v>
       </c>
       <c r="AE3" t="n">
-        <v>72917.4252911112</v>
+        <v>104566.6548605927</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.523504140766966e-06</v>
+        <v>1.00926661208991e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.377604166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>65958.28856159303</v>
+        <v>94586.96008094594</v>
       </c>
     </row>
   </sheetData>
@@ -4609,28 +4609,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>65.70465352748941</v>
+        <v>89.68379871670228</v>
       </c>
       <c r="AB2" t="n">
-        <v>89.90000564101189</v>
+        <v>122.7093299741004</v>
       </c>
       <c r="AC2" t="n">
-        <v>81.3200752781058</v>
+        <v>110.9981237450307</v>
       </c>
       <c r="AD2" t="n">
-        <v>65704.65352748941</v>
+        <v>89683.79871670228</v>
       </c>
       <c r="AE2" t="n">
-        <v>89900.00564101189</v>
+        <v>122709.3299741004</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.53968531332705e-06</v>
+        <v>8.37209300108366e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.0546875</v>
       </c>
       <c r="AH2" t="n">
-        <v>81320.07527810581</v>
+        <v>110998.1237450307</v>
       </c>
     </row>
     <row r="3">
@@ -4715,28 +4715,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>55.85880159185804</v>
+        <v>79.92319812709145</v>
       </c>
       <c r="AB3" t="n">
-        <v>76.42847665435656</v>
+        <v>109.3544456400943</v>
       </c>
       <c r="AC3" t="n">
-        <v>69.13425011052291</v>
+        <v>98.91781082816006</v>
       </c>
       <c r="AD3" t="n">
-        <v>55858.80159185804</v>
+        <v>79923.19812709145</v>
       </c>
       <c r="AE3" t="n">
-        <v>76428.47665435656</v>
+        <v>109354.4456400943</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.060678085067086e-06</v>
+        <v>9.159466234614917e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.533854166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>69134.25011052292</v>
+        <v>98917.81082816006</v>
       </c>
     </row>
     <row r="4">
@@ -4821,28 +4821,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>55.68848378972031</v>
+        <v>79.75288032495374</v>
       </c>
       <c r="AB4" t="n">
-        <v>76.1954403235807</v>
+        <v>109.1214093093185</v>
       </c>
       <c r="AC4" t="n">
-        <v>68.92345444008768</v>
+        <v>98.70701515772481</v>
       </c>
       <c r="AD4" t="n">
-        <v>55688.48378972031</v>
+        <v>79752.88032495373</v>
       </c>
       <c r="AE4" t="n">
-        <v>76195.4403235807</v>
+        <v>109121.4093093184</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.097306361766205e-06</v>
+        <v>9.214822328264626e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.5078125</v>
       </c>
       <c r="AH4" t="n">
-        <v>68923.45444008768</v>
+        <v>98707.01515772482</v>
       </c>
     </row>
   </sheetData>
@@ -5118,28 +5118,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>51.46514238383339</v>
+        <v>73.97098509466433</v>
       </c>
       <c r="AB2" t="n">
-        <v>70.41687829137612</v>
+        <v>101.2103651760255</v>
       </c>
       <c r="AC2" t="n">
-        <v>63.69639025797212</v>
+        <v>91.55098997329065</v>
       </c>
       <c r="AD2" t="n">
-        <v>51465.14238383339</v>
+        <v>73970.98509466433</v>
       </c>
       <c r="AE2" t="n">
-        <v>70416.87829137612</v>
+        <v>101210.3651760255</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.79625157963186e-06</v>
+        <v>1.074139400095461e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.364583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>63696.39025797212</v>
+        <v>91550.98997329065</v>
       </c>
     </row>
   </sheetData>
@@ -5415,28 +5415,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>82.73100374381023</v>
+        <v>108.1536412096819</v>
       </c>
       <c r="AB2" t="n">
-        <v>113.1962091565284</v>
+        <v>147.9805833049253</v>
       </c>
       <c r="AC2" t="n">
-        <v>102.3929218265358</v>
+        <v>133.8575241263966</v>
       </c>
       <c r="AD2" t="n">
-        <v>82731.00374381023</v>
+        <v>108153.6412096819</v>
       </c>
       <c r="AE2" t="n">
-        <v>113196.2091565284</v>
+        <v>147980.5833049253</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.308827987973477e-06</v>
+        <v>6.281781244931652e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.2265625</v>
       </c>
       <c r="AH2" t="n">
-        <v>102392.9218265358</v>
+        <v>133857.5241263965</v>
       </c>
     </row>
     <row r="3">
@@ -5521,28 +5521,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>71.14457318054008</v>
+        <v>96.48186979184014</v>
       </c>
       <c r="AB3" t="n">
-        <v>97.34314370262935</v>
+        <v>132.0107507288286</v>
       </c>
       <c r="AC3" t="n">
-        <v>88.05285068963475</v>
+        <v>119.4118299575567</v>
       </c>
       <c r="AD3" t="n">
-        <v>71144.57318054007</v>
+        <v>96481.86979184014</v>
       </c>
       <c r="AE3" t="n">
-        <v>97343.14370262934</v>
+        <v>132010.7507288286</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.888856542426579e-06</v>
+        <v>7.127396921644238e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.3671875</v>
       </c>
       <c r="AH3" t="n">
-        <v>88052.85068963475</v>
+        <v>119411.8299575567</v>
       </c>
     </row>
     <row r="4">
@@ -5627,28 +5627,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>70.1422663359351</v>
+        <v>95.47956294723515</v>
       </c>
       <c r="AB4" t="n">
-        <v>95.97174325918429</v>
+        <v>130.6393502853836</v>
       </c>
       <c r="AC4" t="n">
-        <v>86.81233477973906</v>
+        <v>118.171314047661</v>
       </c>
       <c r="AD4" t="n">
-        <v>70142.2663359351</v>
+        <v>95479.56294723516</v>
       </c>
       <c r="AE4" t="n">
-        <v>95971.7432591843</v>
+        <v>130639.3502853836</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.107692349616383e-06</v>
+        <v>7.446434644468471e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.09375</v>
       </c>
       <c r="AH4" t="n">
-        <v>86812.33477973906</v>
+        <v>118171.314047661</v>
       </c>
     </row>
     <row r="5">
@@ -5733,28 +5733,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>60.81466538051519</v>
+        <v>94.54071428113279</v>
       </c>
       <c r="AB5" t="n">
-        <v>83.20930812727357</v>
+        <v>129.354776121343</v>
       </c>
       <c r="AC5" t="n">
-        <v>75.26792854462363</v>
+        <v>117.0093378389249</v>
       </c>
       <c r="AD5" t="n">
-        <v>60814.66538051519</v>
+        <v>94540.71428113279</v>
       </c>
       <c r="AE5" t="n">
-        <v>83209.30812727357</v>
+        <v>129354.776121343</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.23083385467912e-06</v>
+        <v>7.62596095629499e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.950520833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>75267.92854462363</v>
+        <v>117009.3378389249</v>
       </c>
     </row>
     <row r="6">
@@ -5839,28 +5839,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>60.29278748437672</v>
+        <v>85.71533544169736</v>
       </c>
       <c r="AB6" t="n">
-        <v>82.49525176614945</v>
+        <v>117.279503444998</v>
       </c>
       <c r="AC6" t="n">
-        <v>74.62202072042055</v>
+        <v>106.0865122390547</v>
       </c>
       <c r="AD6" t="n">
-        <v>60292.78748437672</v>
+        <v>85715.33544169736</v>
       </c>
       <c r="AE6" t="n">
-        <v>82495.25176614945</v>
+        <v>117279.503444998</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.294151464938738e-06</v>
+        <v>7.718270832138938e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.885416666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>74622.02072042055</v>
+        <v>106086.5122390547</v>
       </c>
     </row>
   </sheetData>
@@ -6136,28 +6136,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>50.35258182264545</v>
+        <v>72.48807556518435</v>
       </c>
       <c r="AB2" t="n">
-        <v>68.89462384885169</v>
+        <v>99.18138293644077</v>
       </c>
       <c r="AC2" t="n">
-        <v>62.31941764294422</v>
+        <v>89.71565095095677</v>
       </c>
       <c r="AD2" t="n">
-        <v>50352.58182264546</v>
+        <v>72488.07556518435</v>
       </c>
       <c r="AE2" t="n">
-        <v>68894.6238488517</v>
+        <v>99181.38293644077</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.958453577669729e-06</v>
+        <v>1.114907715601458e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.364583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>62319.41764294422</v>
+        <v>89715.65095095677</v>
       </c>
     </row>
   </sheetData>
@@ -6433,28 +6433,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>69.22865863957036</v>
+        <v>94.01363796006035</v>
       </c>
       <c r="AB2" t="n">
-        <v>94.72170490349174</v>
+        <v>128.6336070458859</v>
       </c>
       <c r="AC2" t="n">
-        <v>85.68159833027356</v>
+        <v>116.356996127862</v>
       </c>
       <c r="AD2" t="n">
-        <v>69228.65863957035</v>
+        <v>94013.63796006035</v>
       </c>
       <c r="AE2" t="n">
-        <v>94721.70490349174</v>
+        <v>128633.6070458859</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.972632864345128e-06</v>
+        <v>7.383580080445306e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.510416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>85681.59833027355</v>
+        <v>116356.996127862</v>
       </c>
     </row>
     <row r="3">
@@ -6539,28 +6539,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>58.88847359992717</v>
+        <v>83.58811206584555</v>
       </c>
       <c r="AB3" t="n">
-        <v>80.57380755549042</v>
+        <v>114.368942575687</v>
       </c>
       <c r="AC3" t="n">
-        <v>72.88395644846236</v>
+        <v>103.453731214112</v>
       </c>
       <c r="AD3" t="n">
-        <v>58888.47359992717</v>
+        <v>83588.11206584555</v>
       </c>
       <c r="AE3" t="n">
-        <v>80573.80755549042</v>
+        <v>114368.942575687</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.486519857640604e-06</v>
+        <v>8.146621686533411e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.8984375</v>
       </c>
       <c r="AH3" t="n">
-        <v>72883.95644846236</v>
+        <v>103453.731214112</v>
       </c>
     </row>
     <row r="4">
@@ -6645,28 +6645,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>58.06335783069841</v>
+        <v>82.76299629661678</v>
       </c>
       <c r="AB4" t="n">
-        <v>79.44484775849355</v>
+        <v>113.2399827786901</v>
       </c>
       <c r="AC4" t="n">
-        <v>71.86274298998548</v>
+        <v>102.4325177556351</v>
       </c>
       <c r="AD4" t="n">
-        <v>58063.35783069841</v>
+        <v>82762.99629661678</v>
       </c>
       <c r="AE4" t="n">
-        <v>79444.84775849355</v>
+        <v>113239.9827786901</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.665967324848207e-06</v>
+        <v>8.413073037458736e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.716145833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>71862.74298998548</v>
+        <v>102432.5177556351</v>
       </c>
     </row>
     <row r="5">
@@ -6751,28 +6751,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>57.81996060927899</v>
+        <v>82.51959907519738</v>
       </c>
       <c r="AB5" t="n">
-        <v>79.11182094222011</v>
+        <v>112.9069559624167</v>
       </c>
       <c r="AC5" t="n">
-        <v>71.56149978565101</v>
+        <v>102.1312745513006</v>
       </c>
       <c r="AD5" t="n">
-        <v>57819.96060927899</v>
+        <v>82519.59907519737</v>
       </c>
       <c r="AE5" t="n">
-        <v>79111.8209422201</v>
+        <v>112906.9559624167</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.717689393935219e-06</v>
+        <v>8.489872199884044e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.6640625</v>
       </c>
       <c r="AH5" t="n">
-        <v>71561.499785651</v>
+        <v>102131.2745513006</v>
       </c>
     </row>
   </sheetData>
@@ -7048,28 +7048,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>71.69493826408785</v>
+        <v>105.0436218961026</v>
       </c>
       <c r="AB2" t="n">
-        <v>98.09617749033291</v>
+        <v>143.7253176757195</v>
       </c>
       <c r="AC2" t="n">
-        <v>88.73401598952967</v>
+        <v>130.008375076538</v>
       </c>
       <c r="AD2" t="n">
-        <v>71694.93826408785</v>
+        <v>105043.6218961026</v>
       </c>
       <c r="AE2" t="n">
-        <v>98096.17749033291</v>
+        <v>143725.3176757195</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.620752962579564e-06</v>
+        <v>6.794551441798482e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.875</v>
       </c>
       <c r="AH2" t="n">
-        <v>88734.01598952967</v>
+        <v>130008.375076538</v>
       </c>
     </row>
     <row r="3">
@@ -7154,28 +7154,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>69.21621317116306</v>
+        <v>94.20648019008226</v>
       </c>
       <c r="AB3" t="n">
-        <v>94.70467646456162</v>
+        <v>128.8974622926005</v>
       </c>
       <c r="AC3" t="n">
-        <v>85.66619506165532</v>
+        <v>116.5956694001534</v>
       </c>
       <c r="AD3" t="n">
-        <v>69216.21317116306</v>
+        <v>94206.48019008226</v>
       </c>
       <c r="AE3" t="n">
-        <v>94704.67646456162</v>
+        <v>128897.4622926005</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.172889589217619e-06</v>
+        <v>7.606436591897275e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.1328125</v>
       </c>
       <c r="AH3" t="n">
-        <v>85666.19506165532</v>
+        <v>116595.6694001534</v>
       </c>
     </row>
     <row r="4">
@@ -7260,28 +7260,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>59.70025053794052</v>
+        <v>84.77576890288027</v>
       </c>
       <c r="AB4" t="n">
-        <v>81.68451657515068</v>
+        <v>115.9939470558388</v>
       </c>
       <c r="AC4" t="n">
-        <v>73.88866095817647</v>
+        <v>104.9236475473868</v>
       </c>
       <c r="AD4" t="n">
-        <v>59700.25053794052</v>
+        <v>84775.76890288027</v>
       </c>
       <c r="AE4" t="n">
-        <v>81684.51657515069</v>
+        <v>115993.9470558388</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.405824894685513e-06</v>
+        <v>7.948954559949196e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.872395833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>73888.66095817648</v>
+        <v>104923.6475473868</v>
       </c>
     </row>
     <row r="5">
@@ -7366,28 +7366,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>59.24529043191475</v>
+        <v>84.32080879685451</v>
       </c>
       <c r="AB5" t="n">
-        <v>81.06202008666324</v>
+        <v>115.3714505673514</v>
       </c>
       <c r="AC5" t="n">
-        <v>73.32557466087076</v>
+        <v>104.3605612500811</v>
       </c>
       <c r="AD5" t="n">
-        <v>59245.29043191475</v>
+        <v>84320.8087968545</v>
       </c>
       <c r="AE5" t="n">
-        <v>81062.02008666324</v>
+        <v>115371.4505673514</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.461011743950824e-06</v>
+        <v>8.030103647398919e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.807291666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>73325.57466087076</v>
+        <v>104360.5612500811</v>
       </c>
     </row>
     <row r="6">
@@ -7472,28 +7472,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>59.19091993644398</v>
+        <v>84.26643830138373</v>
       </c>
       <c r="AB6" t="n">
-        <v>80.9876279761032</v>
+        <v>115.2970584567913</v>
       </c>
       <c r="AC6" t="n">
-        <v>73.25828242893255</v>
+        <v>104.2932690181429</v>
       </c>
       <c r="AD6" t="n">
-        <v>59190.91993644398</v>
+        <v>84266.43830138374</v>
       </c>
       <c r="AE6" t="n">
-        <v>80987.62797610319</v>
+        <v>115297.0584567913</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.45964669820928e-06</v>
+        <v>8.028096426154579e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.807291666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>73258.28242893255</v>
+        <v>104293.2690181429</v>
       </c>
     </row>
   </sheetData>
@@ -7769,28 +7769,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>85.40966093506286</v>
+        <v>119.7376417683791</v>
       </c>
       <c r="AB2" t="n">
-        <v>116.8612660996134</v>
+        <v>163.8303239193634</v>
       </c>
       <c r="AC2" t="n">
-        <v>105.7081908789137</v>
+        <v>148.1945877418484</v>
       </c>
       <c r="AD2" t="n">
-        <v>85409.66093506286</v>
+        <v>119737.6417683791</v>
       </c>
       <c r="AE2" t="n">
-        <v>116861.2660996134</v>
+        <v>163830.3239193634</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.023234730523209e-06</v>
+        <v>5.820705395982531e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.6171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>105708.1908789137</v>
+        <v>148194.5877418484</v>
       </c>
     </row>
     <row r="3">
@@ -7875,28 +7875,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>72.89781318959658</v>
+        <v>98.7291396691554</v>
       </c>
       <c r="AB3" t="n">
-        <v>99.74200403050953</v>
+        <v>135.0855645175197</v>
       </c>
       <c r="AC3" t="n">
-        <v>90.22276715464444</v>
+        <v>122.1931878337843</v>
       </c>
       <c r="AD3" t="n">
-        <v>72897.81318959658</v>
+        <v>98729.1396691554</v>
       </c>
       <c r="AE3" t="n">
-        <v>99742.00403050953</v>
+        <v>135085.5645175197</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.677033608233221e-06</v>
+        <v>6.766603637142099e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.549479166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>90222.76715464445</v>
+        <v>122193.1878337843</v>
       </c>
     </row>
     <row r="4">
@@ -7981,28 +7981,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>71.93290675378535</v>
+        <v>97.59364103275198</v>
       </c>
       <c r="AB4" t="n">
-        <v>98.42177647636566</v>
+        <v>133.5319251885289</v>
       </c>
       <c r="AC4" t="n">
-        <v>89.02854026531664</v>
+        <v>120.7878256618054</v>
       </c>
       <c r="AD4" t="n">
-        <v>71932.90675378534</v>
+        <v>97593.64103275197</v>
       </c>
       <c r="AE4" t="n">
-        <v>98421.77647636566</v>
+        <v>133531.9251885289</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.844506632975552e-06</v>
+        <v>7.008899004947404e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.328125</v>
       </c>
       <c r="AH4" t="n">
-        <v>89028.54026531664</v>
+        <v>120787.8256618054</v>
       </c>
     </row>
     <row r="5">
@@ -8087,28 +8087,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>71.28570827122373</v>
+        <v>96.94644255019034</v>
       </c>
       <c r="AB5" t="n">
-        <v>97.53625096014338</v>
+        <v>132.6463996723067</v>
       </c>
       <c r="AC5" t="n">
-        <v>88.22752806151945</v>
+        <v>119.9868134580082</v>
       </c>
       <c r="AD5" t="n">
-        <v>71285.70827122373</v>
+        <v>96946.44255019035</v>
       </c>
       <c r="AE5" t="n">
-        <v>97536.25096014337</v>
+        <v>132646.3996723067</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.961111902801765e-06</v>
+        <v>7.177600303464274e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.171875</v>
       </c>
       <c r="AH5" t="n">
-        <v>88227.52806151945</v>
+        <v>119986.8134580082</v>
       </c>
     </row>
     <row r="6">
@@ -8193,28 +8193,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>70.65893878511177</v>
+        <v>96.3196730640784</v>
       </c>
       <c r="AB6" t="n">
-        <v>96.67867729812724</v>
+        <v>131.7888260102905</v>
       </c>
       <c r="AC6" t="n">
-        <v>87.45180002619367</v>
+        <v>119.2110854226825</v>
       </c>
       <c r="AD6" t="n">
-        <v>70658.93878511178</v>
+        <v>96319.67306407841</v>
       </c>
       <c r="AE6" t="n">
-        <v>96678.67729812724</v>
+        <v>131788.8260102905</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.028261103787241e-06</v>
+        <v>7.274749921294613e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.09375</v>
       </c>
       <c r="AH6" t="n">
-        <v>87451.80002619367</v>
+        <v>119211.0854226825</v>
       </c>
     </row>
     <row r="7">
@@ -8299,28 +8299,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>70.35491395713265</v>
+        <v>96.01564823609927</v>
       </c>
       <c r="AB7" t="n">
-        <v>96.26269711585761</v>
+        <v>131.3728458280209</v>
       </c>
       <c r="AC7" t="n">
-        <v>87.07552040868785</v>
+        <v>118.8348058051767</v>
       </c>
       <c r="AD7" t="n">
-        <v>70354.91395713265</v>
+        <v>96015.64823609927</v>
       </c>
       <c r="AE7" t="n">
-        <v>96262.69711585761</v>
+        <v>131372.8458280209</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.087457806548087e-06</v>
+        <v>7.360394083334251e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.015625</v>
       </c>
       <c r="AH7" t="n">
-        <v>87075.52040868785</v>
+        <v>118834.8058051767</v>
       </c>
     </row>
   </sheetData>
@@ -8596,28 +8596,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>66.95596702761783</v>
+        <v>91.15814338119375</v>
       </c>
       <c r="AB2" t="n">
-        <v>91.61210797594227</v>
+        <v>124.7265933875527</v>
       </c>
       <c r="AC2" t="n">
-        <v>82.86877696914171</v>
+        <v>112.8228623695507</v>
       </c>
       <c r="AD2" t="n">
-        <v>66955.96702761784</v>
+        <v>91158.14338119375</v>
       </c>
       <c r="AE2" t="n">
-        <v>91612.10797594227</v>
+        <v>124726.5933875527</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.325674487305212e-06</v>
+        <v>7.997483436943971e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.223958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>82868.77696914171</v>
+        <v>112822.8623695507</v>
       </c>
     </row>
     <row r="3">
@@ -8702,28 +8702,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>56.94873184115085</v>
+        <v>81.23615954074732</v>
       </c>
       <c r="AB3" t="n">
-        <v>77.91976730576721</v>
+        <v>111.1508973700269</v>
       </c>
       <c r="AC3" t="n">
-        <v>70.48321407520298</v>
+        <v>100.5428117263242</v>
       </c>
       <c r="AD3" t="n">
-        <v>56948.73184115085</v>
+        <v>81236.15954074732</v>
       </c>
       <c r="AE3" t="n">
-        <v>77919.76730576721</v>
+        <v>111150.8973700269</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.833936096176403e-06</v>
+        <v>8.760732074890418e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.677083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>70483.21407520298</v>
+        <v>100542.8117263242</v>
       </c>
     </row>
     <row r="4">
@@ -8808,28 +8808,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>56.4408314247309</v>
+        <v>80.72825912432737</v>
       </c>
       <c r="AB4" t="n">
-        <v>77.22483554903683</v>
+        <v>110.4559656132965</v>
       </c>
       <c r="AC4" t="n">
-        <v>69.85460562999187</v>
+        <v>99.91420328111313</v>
       </c>
       <c r="AD4" t="n">
-        <v>56440.8314247309</v>
+        <v>80728.25912432736</v>
       </c>
       <c r="AE4" t="n">
-        <v>77224.83554903683</v>
+        <v>110455.9656132965</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.948300048933729e-06</v>
+        <v>8.932470663146298e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.572916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>69854.60562999187</v>
+        <v>99914.20328111314</v>
       </c>
     </row>
   </sheetData>
@@ -9105,28 +9105,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>55.06903079914377</v>
+        <v>78.64360677538474</v>
       </c>
       <c r="AB2" t="n">
-        <v>75.34787741353709</v>
+        <v>107.6036523011038</v>
       </c>
       <c r="AC2" t="n">
-        <v>68.15678174461634</v>
+        <v>97.33411074818832</v>
       </c>
       <c r="AD2" t="n">
-        <v>55069.03079914377</v>
+        <v>78643.60677538475</v>
       </c>
       <c r="AE2" t="n">
-        <v>75347.87741353709</v>
+        <v>107603.6523011038</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.068914121261125e-06</v>
+        <v>9.308177302726654e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.690104166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>68156.78174461634</v>
+        <v>97334.11074818832</v>
       </c>
     </row>
     <row r="3">
@@ -9211,28 +9211,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>54.05822973964511</v>
+        <v>77.4622135152939</v>
       </c>
       <c r="AB3" t="n">
-        <v>73.96485481053622</v>
+        <v>105.987217923256</v>
       </c>
       <c r="AC3" t="n">
-        <v>66.90575287776103</v>
+        <v>95.87194659868197</v>
       </c>
       <c r="AD3" t="n">
-        <v>54058.22973964511</v>
+        <v>77462.2135152939</v>
       </c>
       <c r="AE3" t="n">
-        <v>73964.85481053623</v>
+        <v>105987.217923256</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.394590850147148e-06</v>
+        <v>9.807682926842026e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.403645833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>66905.75287776103</v>
+        <v>95871.94659868197</v>
       </c>
     </row>
   </sheetData>
@@ -16169,28 +16169,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>52.59848653709766</v>
+        <v>75.43267460677937</v>
       </c>
       <c r="AB2" t="n">
-        <v>71.96756976148679</v>
+        <v>103.2103132516905</v>
       </c>
       <c r="AC2" t="n">
-        <v>65.09908591058506</v>
+        <v>93.36006581155951</v>
       </c>
       <c r="AD2" t="n">
-        <v>52598.48653709766</v>
+        <v>75432.67460677937</v>
       </c>
       <c r="AE2" t="n">
-        <v>71967.56976148678</v>
+        <v>103210.3132516904</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.585342485146091e-06</v>
+        <v>1.028946773475297e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.416666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>65099.08591058506</v>
+        <v>93360.06581155951</v>
       </c>
     </row>
     <row r="3">
@@ -16275,28 +16275,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>52.39407864229402</v>
+        <v>75.22826671197572</v>
       </c>
       <c r="AB3" t="n">
-        <v>71.6878898619767</v>
+        <v>102.9306333521804</v>
       </c>
       <c r="AC3" t="n">
-        <v>64.84609826815093</v>
+        <v>93.10707816912537</v>
       </c>
       <c r="AD3" t="n">
-        <v>52394.07864229402</v>
+        <v>75228.26671197572</v>
       </c>
       <c r="AE3" t="n">
-        <v>71687.8898619767</v>
+        <v>102930.6333521804</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.680243212349399e-06</v>
+        <v>1.043774824905661e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.3515625</v>
       </c>
       <c r="AH3" t="n">
-        <v>64846.09826815093</v>
+        <v>93107.07816912538</v>
       </c>
     </row>
   </sheetData>
@@ -16572,28 +16572,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>49.11396840561157</v>
+        <v>70.81864468251317</v>
       </c>
       <c r="AB2" t="n">
-        <v>67.1998983278994</v>
+        <v>96.89719395267862</v>
       </c>
       <c r="AC2" t="n">
-        <v>60.78643434714884</v>
+        <v>87.64946175792478</v>
       </c>
       <c r="AD2" t="n">
-        <v>49113.96840561157</v>
+        <v>70818.64468251317</v>
       </c>
       <c r="AE2" t="n">
-        <v>67199.8983278994</v>
+        <v>96897.19395267862</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.057247965109145e-06</v>
+        <v>1.150102857407604e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.4296875</v>
       </c>
       <c r="AH2" t="n">
-        <v>60786.43434714884</v>
+        <v>87649.46175792479</v>
       </c>
     </row>
   </sheetData>
@@ -16869,28 +16869,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>70.46254241979274</v>
+        <v>103.5659841221054</v>
       </c>
       <c r="AB2" t="n">
-        <v>96.40995912670169</v>
+        <v>141.7035484845598</v>
       </c>
       <c r="AC2" t="n">
-        <v>87.20872793990058</v>
+        <v>128.179560699411</v>
       </c>
       <c r="AD2" t="n">
-        <v>70462.54241979274</v>
+        <v>103565.9841221054</v>
       </c>
       <c r="AE2" t="n">
-        <v>96409.95912670169</v>
+        <v>141703.5484845598</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.789977156401063e-06</v>
+        <v>7.07662030614652e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.692708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>87208.72793990058</v>
+        <v>128179.560699411</v>
       </c>
     </row>
     <row r="3">
@@ -16975,28 +16975,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>59.74046512245025</v>
+        <v>92.75856597019133</v>
       </c>
       <c r="AB3" t="n">
-        <v>81.73953994381912</v>
+        <v>126.9163621794796</v>
       </c>
       <c r="AC3" t="n">
-        <v>73.938432973765</v>
+        <v>114.8036427013366</v>
       </c>
       <c r="AD3" t="n">
-        <v>59740.46512245025</v>
+        <v>92758.56597019132</v>
       </c>
       <c r="AE3" t="n">
-        <v>81739.53994381912</v>
+        <v>126916.3621794796</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.353608150056825e-06</v>
+        <v>7.909317917146137e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.989583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>73938.432973765</v>
+        <v>114803.6427013366</v>
       </c>
     </row>
     <row r="4">
@@ -17081,28 +17081,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>58.84254555151703</v>
+        <v>83.73413246918027</v>
       </c>
       <c r="AB4" t="n">
-        <v>80.51096677345321</v>
+        <v>114.568734133495</v>
       </c>
       <c r="AC4" t="n">
-        <v>72.82711310246513</v>
+        <v>103.6344549460521</v>
       </c>
       <c r="AD4" t="n">
-        <v>58842.54555151703</v>
+        <v>83734.13246918027</v>
       </c>
       <c r="AE4" t="n">
-        <v>80510.96677345321</v>
+        <v>114568.734133495</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.545539102557057e-06</v>
+        <v>8.192873022210915e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.78125</v>
       </c>
       <c r="AH4" t="n">
-        <v>72827.11310246514</v>
+        <v>103634.4549460521</v>
       </c>
     </row>
     <row r="5">
@@ -17187,28 +17187,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>58.53138594999438</v>
+        <v>83.42297286765763</v>
       </c>
       <c r="AB5" t="n">
-        <v>80.08522447925735</v>
+        <v>114.1429918392991</v>
       </c>
       <c r="AC5" t="n">
-        <v>72.44200305529414</v>
+        <v>103.2493448988811</v>
       </c>
       <c r="AD5" t="n">
-        <v>58531.38594999438</v>
+        <v>83422.97286765763</v>
       </c>
       <c r="AE5" t="n">
-        <v>80085.22447925735</v>
+        <v>114142.9918392991</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.584683563110594e-06</v>
+        <v>8.250704296845727e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.7421875</v>
       </c>
       <c r="AH5" t="n">
-        <v>72442.00305529413</v>
+        <v>103249.3448988811</v>
       </c>
     </row>
   </sheetData>
@@ -17484,28 +17484,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>84.1542200451679</v>
+        <v>118.0995592074018</v>
       </c>
       <c r="AB2" t="n">
-        <v>115.1435164879169</v>
+        <v>161.5890270923332</v>
       </c>
       <c r="AC2" t="n">
-        <v>104.1543808792802</v>
+        <v>146.1671971383094</v>
       </c>
       <c r="AD2" t="n">
-        <v>84154.22004516791</v>
+        <v>118099.5592074018</v>
       </c>
       <c r="AE2" t="n">
-        <v>115143.5164879169</v>
+        <v>161589.0270923332</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.155580069481992e-06</v>
+        <v>6.034604618866386e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.434895833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>104154.3808792802</v>
+        <v>146167.1971383094</v>
       </c>
     </row>
     <row r="3">
@@ -17590,28 +17590,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>72.04096149745669</v>
+        <v>97.54265867355571</v>
       </c>
       <c r="AB3" t="n">
-        <v>98.56962174369558</v>
+        <v>133.4621688754937</v>
       </c>
       <c r="AC3" t="n">
-        <v>89.16227538783475</v>
+        <v>120.7247267933827</v>
       </c>
       <c r="AD3" t="n">
-        <v>72040.96149745669</v>
+        <v>97542.65867355571</v>
       </c>
       <c r="AE3" t="n">
-        <v>98569.62174369558</v>
+        <v>133462.1688754937</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.780607400915627e-06</v>
+        <v>6.942249943495471e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.458333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>89162.27538783476</v>
+        <v>120724.7267933827</v>
       </c>
     </row>
     <row r="4">
@@ -17696,28 +17696,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>70.86412257022712</v>
+        <v>96.36581974632614</v>
       </c>
       <c r="AB4" t="n">
-        <v>96.95941880499164</v>
+        <v>131.8519659367898</v>
       </c>
       <c r="AC4" t="n">
-        <v>87.70574795766619</v>
+        <v>119.2681993632141</v>
       </c>
       <c r="AD4" t="n">
-        <v>70864.12257022712</v>
+        <v>96365.81974632615</v>
       </c>
       <c r="AE4" t="n">
-        <v>96959.41880499164</v>
+        <v>131851.9659367898</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.012365238947023e-06</v>
+        <v>7.278801495013787e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.158854166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>87705.74795766619</v>
+        <v>119268.1993632141</v>
       </c>
     </row>
     <row r="5">
@@ -17802,28 +17802,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>70.42174010771443</v>
+        <v>95.92343728381346</v>
       </c>
       <c r="AB5" t="n">
-        <v>96.35413160324525</v>
+        <v>131.2466787350434</v>
       </c>
       <c r="AC5" t="n">
-        <v>87.15822851692836</v>
+        <v>118.7206799224763</v>
       </c>
       <c r="AD5" t="n">
-        <v>70421.74010771443</v>
+        <v>95923.43728381346</v>
       </c>
       <c r="AE5" t="n">
-        <v>96354.13160324525</v>
+        <v>131246.6787350434</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.065269321126368e-06</v>
+        <v>7.355627163954911e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.09375</v>
       </c>
       <c r="AH5" t="n">
-        <v>87158.22851692836</v>
+        <v>118720.6799224763</v>
       </c>
     </row>
     <row r="6">
@@ -17908,28 +17908,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>60.97513957565643</v>
+        <v>94.92038922933931</v>
       </c>
       <c r="AB6" t="n">
-        <v>83.42887600068757</v>
+        <v>129.8742641355555</v>
       </c>
       <c r="AC6" t="n">
-        <v>75.46654116836449</v>
+        <v>117.4792466461671</v>
       </c>
       <c r="AD6" t="n">
-        <v>60975.13957565644</v>
+        <v>94920.3892293393</v>
       </c>
       <c r="AE6" t="n">
-        <v>83428.87600068757</v>
+        <v>129874.2641355555</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.191527404246758e-06</v>
+        <v>7.538975240235029e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.950520833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>75466.54116836449</v>
+        <v>117479.2466461671</v>
       </c>
     </row>
     <row r="7">
@@ -18014,28 +18014,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>61.06826841378594</v>
+        <v>95.01351806746882</v>
       </c>
       <c r="AB7" t="n">
-        <v>83.55629898557066</v>
+        <v>130.0016871204386</v>
       </c>
       <c r="AC7" t="n">
-        <v>75.58180308240966</v>
+        <v>117.5945085602123</v>
       </c>
       <c r="AD7" t="n">
-        <v>61068.26841378595</v>
+        <v>95013.51806746882</v>
       </c>
       <c r="AE7" t="n">
-        <v>83556.29898557067</v>
+        <v>130001.6871204386</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.181444787687914e-06</v>
+        <v>7.52433357687181e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.963541666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>75581.80308240966</v>
+        <v>117594.5085602123</v>
       </c>
     </row>
   </sheetData>
@@ -18311,28 +18311,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>47.65963847398474</v>
+        <v>69.00663038476776</v>
       </c>
       <c r="AB2" t="n">
-        <v>65.21001995494018</v>
+        <v>94.4179160500757</v>
       </c>
       <c r="AC2" t="n">
-        <v>58.98646717329239</v>
+        <v>85.40680265865709</v>
       </c>
       <c r="AD2" t="n">
-        <v>47659.63847398473</v>
+        <v>69006.63038476776</v>
       </c>
       <c r="AE2" t="n">
-        <v>65210.01995494017</v>
+        <v>94417.9160500757</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.939491899476044e-06</v>
+        <v>1.156771954814863e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.716145833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>58986.46717329239</v>
+        <v>85406.80265865709</v>
       </c>
     </row>
   </sheetData>
@@ -18608,28 +18608,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>56.41269577261212</v>
+        <v>80.2403187000594</v>
       </c>
       <c r="AB2" t="n">
-        <v>77.18633910855054</v>
+        <v>109.7883439984011</v>
       </c>
       <c r="AC2" t="n">
-        <v>69.81978323575551</v>
+        <v>99.31029853613036</v>
       </c>
       <c r="AD2" t="n">
-        <v>56412.69577261213</v>
+        <v>80240.3187000594</v>
       </c>
       <c r="AE2" t="n">
-        <v>77186.33910855054</v>
+        <v>109788.3439984011</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.768478564273895e-06</v>
+        <v>8.779085724228948e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.8984375</v>
       </c>
       <c r="AH2" t="n">
-        <v>69819.7832357555</v>
+        <v>99310.29853613036</v>
       </c>
     </row>
     <row r="3">
@@ -18714,28 +18714,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>54.99529391534192</v>
+        <v>78.65232464219702</v>
       </c>
       <c r="AB3" t="n">
-        <v>75.24698735607772</v>
+        <v>107.6155804710815</v>
       </c>
       <c r="AC3" t="n">
-        <v>68.06552049264079</v>
+        <v>97.34490051036462</v>
       </c>
       <c r="AD3" t="n">
-        <v>54995.29391534192</v>
+        <v>78652.32464219701</v>
       </c>
       <c r="AE3" t="n">
-        <v>75246.98735607772</v>
+        <v>107615.5804710815</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.211896158935918e-06</v>
+        <v>9.453925897733052e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.481770833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>68065.52049264079</v>
+        <v>97344.90051036462</v>
       </c>
     </row>
     <row r="4">
@@ -18820,28 +18820,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>54.99529391534192</v>
+        <v>78.65232464219702</v>
       </c>
       <c r="AB4" t="n">
-        <v>75.24698735607772</v>
+        <v>107.6155804710815</v>
       </c>
       <c r="AC4" t="n">
-        <v>68.06552049264079</v>
+        <v>97.34490051036462</v>
       </c>
       <c r="AD4" t="n">
-        <v>54995.29391534192</v>
+        <v>78652.32464219701</v>
       </c>
       <c r="AE4" t="n">
-        <v>75246.98735607772</v>
+        <v>107615.5804710815</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.211896158935918e-06</v>
+        <v>9.453925897733052e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.481770833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>68065.52049264079</v>
+        <v>97344.90051036462</v>
       </c>
     </row>
   </sheetData>
@@ -19117,28 +19117,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>68.12380691922625</v>
+        <v>92.53721903229891</v>
       </c>
       <c r="AB2" t="n">
-        <v>93.20999803709991</v>
+        <v>126.6135055339176</v>
       </c>
       <c r="AC2" t="n">
-        <v>84.31416664551574</v>
+        <v>114.5296902689651</v>
       </c>
       <c r="AD2" t="n">
-        <v>68123.80691922625</v>
+        <v>92537.2190322989</v>
       </c>
       <c r="AE2" t="n">
-        <v>93209.99803709991</v>
+        <v>126613.5055339176</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.137583457196417e-06</v>
+        <v>7.669953284675721e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.380208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>84314.16664551574</v>
+        <v>114529.6902689651</v>
       </c>
     </row>
     <row r="3">
@@ -19223,28 +19223,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>57.86777117186694</v>
+        <v>82.36643463096016</v>
       </c>
       <c r="AB3" t="n">
-        <v>79.17723746320607</v>
+        <v>112.697389612673</v>
       </c>
       <c r="AC3" t="n">
-        <v>71.62067304568673</v>
+        <v>101.9417089198483</v>
       </c>
       <c r="AD3" t="n">
-        <v>57867.77117186694</v>
+        <v>82366.43463096015</v>
       </c>
       <c r="AE3" t="n">
-        <v>79177.23746320607</v>
+        <v>112697.3896126731</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.682378812148152e-06</v>
+        <v>8.483284096136325e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.768229166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>71620.67304568672</v>
+        <v>101941.7089198483</v>
       </c>
     </row>
     <row r="4">
@@ -19329,28 +19329,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>57.20783739187535</v>
+        <v>81.70650085096857</v>
       </c>
       <c r="AB4" t="n">
-        <v>78.27428695119845</v>
+        <v>111.7944391006654</v>
       </c>
       <c r="AC4" t="n">
-        <v>70.80389886324581</v>
+        <v>101.1249347374074</v>
       </c>
       <c r="AD4" t="n">
-        <v>57207.83739187535</v>
+        <v>81706.50085096857</v>
       </c>
       <c r="AE4" t="n">
-        <v>78274.28695119845</v>
+        <v>111794.4391006654</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.798824196923124e-06</v>
+        <v>8.657126656336313e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.651041666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>70803.89886324581</v>
+        <v>101124.9347374074</v>
       </c>
     </row>
     <row r="5">
@@ -19435,28 +19435,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>57.04744736767633</v>
+        <v>81.54611082676954</v>
       </c>
       <c r="AB5" t="n">
-        <v>78.05483424418097</v>
+        <v>111.5749863936479</v>
       </c>
       <c r="AC5" t="n">
-        <v>70.6053904145822</v>
+        <v>100.9264262887438</v>
       </c>
       <c r="AD5" t="n">
-        <v>57047.44736767633</v>
+        <v>81546.11082676954</v>
       </c>
       <c r="AE5" t="n">
-        <v>78054.83424418097</v>
+        <v>111574.9863936479</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.856204175897355e-06</v>
+        <v>8.742789840569661e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.598958333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>70605.3904145822</v>
+        <v>100926.4262887438</v>
       </c>
     </row>
   </sheetData>
